--- a/Equipe106.xlsx
+++ b/Equipe106.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328E979A-628C-4EC0-89AF-9250EC55EE5E}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D0D9E2-6675-421B-8F46-38CE7F0FF4FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
   <si>
     <t>Fonct.</t>
   </si>
@@ -123,6 +123,10 @@
 CommandHandlerService</t>
   </si>
   <si>
+    <t>ChatBoxComponent ngOnChanges
+WaitingPopupComponent wsitchMode</t>
+  </si>
+  <si>
     <t>1.4 Accessibilité</t>
   </si>
   <si>
@@ -136,6 +140,9 @@
   </si>
   <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière constante (soit dans le constructeur partout, soit à la définition)</t>
+  </si>
+  <si>
+    <t>CommunicationServce socket</t>
   </si>
   <si>
     <t>Sous-total</t>
@@ -151,6 +158,9 @@
 Le format à utiliser doit être uniforme dans tous les fichiers (camelCase, PascalCase, ...)</t>
   </si>
   <si>
+    <t>playerJoinLobby et playerLeaveLobby -&gt; joinLobby et leaveLobby</t>
+  </si>
+  <si>
     <t>2.2 Utilité</t>
   </si>
   <si>
@@ -209,6 +219,9 @@
     <t xml:space="preserve">Les constantes sont regroupées en groupes logiques. Des variables d'environnement sont utilisées plutôt que des constantes pour les valeurs en lien avec l'environnement de déploiement (par exemple, SERVER_URL). </t>
   </si>
   <si>
+    <t>l'URL devrait être une variable d'env</t>
+  </si>
+  <si>
     <t>4.2 Utilisation de constantes</t>
   </si>
   <si>
@@ -230,6 +243,9 @@
     <t>Faites la difference entre variable locale et constante (ex: CHAR_OFFSET)</t>
   </si>
   <si>
+    <t>Faites la difference entre variable locale et constante (ex: NOT_PRESENT)</t>
+  </si>
+  <si>
     <t>5. Expression booléennes</t>
   </si>
   <si>
@@ -242,6 +258,10 @@
     <t>ReserveServjce isExchangePossible</t>
   </si>
   <si>
+    <t>easelMouseClicked
+manageKeyboard (PlaceTileService)</t>
+  </si>
+  <si>
     <t>5.2 Logique booléenne négative</t>
   </si>
   <si>
@@ -255,6 +275,10 @@
   </si>
   <si>
     <t>PlayerService getPlayerByName</t>
+  </si>
+  <si>
+    <t>Même commentaire que sprint 1
+playerJoinLobby</t>
   </si>
   <si>
     <t>5.4 Prédicats</t>
@@ -267,6 +291,9 @@
     <t>WordValidationService noLoneTile</t>
   </si>
   <si>
+    <t>Même commentaire que sprint 1</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -294,6 +321,9 @@
     <t>La langue utilisée pour le nom des variables, des classes et des fonctions doit être uniforme pour tout le code source (les commentaires peuvent différer de la langue du code source mais doivent tout de même rester uniformes)</t>
   </si>
   <si>
+    <t>Melange anglais francais</t>
+  </si>
+  <si>
     <t>6.5 Commentaires</t>
   </si>
   <si>
@@ -322,6 +352,9 @@
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>Duplication de la logique dans findWordTilesFromBoard</t>
   </si>
   <si>
     <t>6.9 ESLint</t>
@@ -340,6 +373,9 @@
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
   </si>
   <si>
+    <t>Pas toujours utilisé</t>
+  </si>
+  <si>
     <t>6.11 Performance</t>
   </si>
   <si>
@@ -359,6 +395,9 @@
   </si>
   <si>
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
+  </si>
+  <si>
+    <t>WIP, tests, final. plus précis svp</t>
   </si>
   <si>
     <t>7.3 Branches mortes</t>
@@ -381,6 +420,9 @@
 Elles devraient aussi avoir un titre</t>
   </si>
   <si>
+    <t>Vos issues ne sont encore pas à jour</t>
+  </si>
+  <si>
     <t>7.5 Fichiers</t>
   </si>
   <si>
@@ -477,31 +519,66 @@
     <t>2.1 Mode multijoueur</t>
   </si>
   <si>
+    <t>Le système doit suivre les mêmes règles de jeu et déroulement de la partie qu'une partie en mode solo</t>
+  </si>
+  <si>
     <t>2.2 Clavarder</t>
   </si>
   <si>
+    <t>Non fonctionnel</t>
+  </si>
+  <si>
     <t>2.3 Validation des mots sur le serveur</t>
   </si>
   <si>
+    <t>Venez me voir si vous avez une manière de placer des mots en multijoueur</t>
+  </si>
+  <si>
     <t>2.4 Paramètres de partie (minuterie et mode aléatoire)</t>
   </si>
   <si>
+    <t>Le système doit générer un plateau de jeu ou chaque case bonus échange de place</t>
+  </si>
+  <si>
     <t>2.5 Initialisation d'une nouvelle partie (mode multijoueur)</t>
   </si>
   <si>
+    <t>Le système doit permettre au joueur de convertir la partie en mode multijoueur en partie solo</t>
+  </si>
+  <si>
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>Échanger des lettres n'enlève pas le curseur sur la planche de jeu
+Ne semble pas fonctionner en multijoueur
+Pas de commande dans la boite de communication</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>Pas de commande échanger dans la boite de communication</t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
+    <t>L'abandon n'est pas fonctionnel</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
     <t>2.10 Commande réserve</t>
+  </si>
+  <si>
+    <t>Rien n'est implémenté</t>
+  </si>
+  <si>
+    <t>Vous allez chercher les sockets sur votre machine AWS, mais vous faites les requetes http sur localhost</t>
+  </si>
+  <si>
+    <t>Erreur dans la console client, serveur crash + ERROR: 'NG0304: 'mat-card' is not a known element + Tests qui fails et crash dans le client</t>
   </si>
   <si>
     <t>Ne build pas</t>
@@ -1362,7 +1439,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2207,6 +2284,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2216,7 +2296,7 @@
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2663,22 +2743,22 @@
       </c>
       <c r="B5" s="216">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
+        <v>0.28745000000000004</v>
       </c>
       <c r="C5" s="217">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="217">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.43247000000000002</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>10.81175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2730,8 +2810,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2902,7 +2982,9 @@
         <v>3</v>
       </c>
       <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="53">
+        <v>1</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
@@ -2929,7 +3011,9 @@
         <v>2</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
@@ -2942,7 +3026,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="60">
+    <row r="11" spans="1:17" ht="75">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
@@ -2958,11 +3042,15 @@
       <c r="E11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="39"/>
       <c r="J11" s="34">
         <v>3</v>
@@ -2973,10 +3061,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="35">
         <v>0.75</v>
@@ -2985,9 +3073,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
@@ -3002,10 +3092,10 @@
     </row>
     <row r="13" spans="1:17" ht="30">
       <c r="A13" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="35">
         <v>1</v>
@@ -3014,11 +3104,15 @@
         <v>4</v>
       </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="F13" s="37">
+        <v>0.75</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="34">
         <v>4</v>
@@ -3029,7 +3123,7 @@
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A14" s="226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="227"/>
       <c r="C14" s="87">
@@ -3043,7 +3137,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="90">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="91">
         <f>SUM(G9:G13)</f>
@@ -3064,7 +3158,7 @@
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
       <c r="A15" s="233" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="234"/>
       <c r="C15" s="224" t="s">
@@ -3089,10 +3183,10 @@
     </row>
     <row r="16" spans="1:17" ht="45">
       <c r="A16" s="78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="62">
         <v>1</v>
@@ -3101,11 +3195,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="64"/>
-      <c r="F16" s="68"/>
+      <c r="F16" s="68">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="69">
         <v>2</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="70" t="s">
+        <v>37</v>
+      </c>
       <c r="I16" s="74"/>
       <c r="J16" s="75">
         <v>2</v>
@@ -3116,10 +3214,10 @@
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3128,7 +3226,9 @@
         <v>3</v>
       </c>
       <c r="E17" s="65"/>
-      <c r="F17" s="71"/>
+      <c r="F17" s="71">
+        <v>1</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
@@ -3143,10 +3243,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3155,7 +3255,9 @@
         <v>3</v>
       </c>
       <c r="E18" s="65"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="71">
+        <v>1</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
@@ -3170,10 +3272,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3182,7 +3284,9 @@
         <v>3</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="71">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
@@ -3197,10 +3301,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3209,7 +3313,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="71">
+        <v>1</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
@@ -3224,7 +3330,7 @@
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="235" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="232"/>
       <c r="C21" s="98">
@@ -3238,7 +3344,7 @@
       <c r="E21" s="100"/>
       <c r="F21" s="101">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G21" s="102">
         <f>SUM(G16:G20)</f>
@@ -3259,7 +3365,7 @@
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A22" s="228" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="229"/>
       <c r="C22" s="224" t="s">
@@ -3284,10 +3390,10 @@
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="80" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
@@ -3296,7 +3402,9 @@
         <v>2</v>
       </c>
       <c r="E23" s="86"/>
-      <c r="F23" s="109"/>
+      <c r="F23" s="109">
+        <v>1</v>
+      </c>
       <c r="G23" s="110">
         <v>2</v>
       </c>
@@ -3311,10 +3419,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="82" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" s="45">
         <v>1</v>
@@ -3323,7 +3431,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="65"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="71">
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
@@ -3338,10 +3448,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="82" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3350,7 +3460,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="65"/>
-      <c r="F25" s="71"/>
+      <c r="F25" s="71">
+        <v>1</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
@@ -3365,7 +3477,7 @@
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A26" s="231" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="232"/>
       <c r="C26" s="87">
@@ -3379,7 +3491,7 @@
       <c r="E26" s="89"/>
       <c r="F26" s="101">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="102">
         <f>SUM(G23:G25)</f>
@@ -3400,7 +3512,7 @@
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A27" s="228" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" s="229"/>
       <c r="C27" s="224" t="s">
@@ -3408,31 +3520,31 @@
       </c>
       <c r="D27" s="225"/>
       <c r="E27" s="60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F27" s="224" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="225"/>
       <c r="H27" s="59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I27" s="224" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="225"/>
       <c r="K27" s="60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="120" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="112">
         <v>1</v>
@@ -3441,11 +3553,15 @@
         <v>2</v>
       </c>
       <c r="E28" s="113"/>
-      <c r="F28" s="107"/>
+      <c r="F28" s="107">
+        <v>0.5</v>
+      </c>
       <c r="G28" s="66">
         <v>2</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="I28" s="118"/>
       <c r="J28" s="73">
         <v>2</v>
@@ -3456,10 +3572,10 @@
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3468,7 +3584,9 @@
         <v>2</v>
       </c>
       <c r="E29" s="65"/>
-      <c r="F29" s="71"/>
+      <c r="F29" s="71">
+        <v>1</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
@@ -3483,10 +3601,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3495,7 +3613,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="65"/>
-      <c r="F30" s="71"/>
+      <c r="F30" s="71">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
@@ -3510,10 +3630,10 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C31" s="45">
         <v>0.75</v>
@@ -3522,13 +3642,17 @@
         <v>3</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="71"/>
+        <v>64</v>
+      </c>
+      <c r="F31" s="71">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="43" t="s">
+        <v>65</v>
+      </c>
       <c r="I31" s="77"/>
       <c r="J31" s="44">
         <v>3</v>
@@ -3539,7 +3663,7 @@
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A32" s="226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="227"/>
       <c r="C32" s="87">
@@ -3553,7 +3677,7 @@
       <c r="E32" s="89"/>
       <c r="F32" s="90">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G32" s="91">
         <f>SUM(G28:G31)</f>
@@ -3574,7 +3698,7 @@
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A33" s="228" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B33" s="230"/>
       <c r="C33" s="224" t="s">
@@ -3597,12 +3721,12 @@
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="30">
+    <row r="34" spans="1:13" ht="45">
       <c r="A34" s="120" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="112">
         <v>0</v>
@@ -3611,13 +3735,17 @@
         <v>1</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="107"/>
+        <v>69</v>
+      </c>
+      <c r="F34" s="107">
+        <v>0</v>
+      </c>
       <c r="G34" s="66">
         <v>1</v>
       </c>
-      <c r="H34" s="108"/>
+      <c r="H34" s="108" t="s">
+        <v>70</v>
+      </c>
       <c r="I34" s="118"/>
       <c r="J34" s="73">
         <v>1</v>
@@ -3628,10 +3756,10 @@
     </row>
     <row r="35" spans="1:13" ht="30">
       <c r="A35" s="56" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C35" s="45">
         <v>1</v>
@@ -3640,7 +3768,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="65"/>
-      <c r="F35" s="71"/>
+      <c r="F35" s="71">
+        <v>1</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
@@ -3653,12 +3783,12 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="30">
+    <row r="36" spans="1:13" ht="45">
       <c r="A36" s="21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36" s="45">
         <v>0.5</v>
@@ -3667,13 +3797,17 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="71"/>
+        <v>75</v>
+      </c>
+      <c r="F36" s="71">
+        <v>0.25</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="72"/>
+      <c r="H36" s="72" t="s">
+        <v>76</v>
+      </c>
       <c r="I36" s="77"/>
       <c r="J36" s="44">
         <v>3</v>
@@ -3684,10 +3818,10 @@
     </row>
     <row r="37" spans="1:13" ht="30">
       <c r="A37" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C37" s="45">
         <v>0.5</v>
@@ -3696,13 +3830,17 @@
         <v>3</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="F37" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="72"/>
+      <c r="H37" s="72" t="s">
+        <v>80</v>
+      </c>
       <c r="I37" s="77"/>
       <c r="J37" s="44">
         <v>3</v>
@@ -3713,7 +3851,7 @@
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A38" s="226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" s="227"/>
       <c r="C38" s="122">
@@ -3727,7 +3865,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="123">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G38" s="91">
         <f>SUM(G34:G37)</f>
@@ -3748,7 +3886,7 @@
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A39" s="228" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B39" s="229"/>
       <c r="C39" s="224" t="s">
@@ -3756,31 +3894,31 @@
       </c>
       <c r="D39" s="225"/>
       <c r="E39" s="59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F39" s="224" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="225"/>
       <c r="H39" s="60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I39" s="224" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="225"/>
       <c r="K39" s="60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
       <c r="A40" s="78" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C40" s="84">
         <v>1</v>
@@ -3789,7 +3927,9 @@
         <v>1</v>
       </c>
       <c r="E40" s="86"/>
-      <c r="F40" s="109"/>
+      <c r="F40" s="109">
+        <v>1</v>
+      </c>
       <c r="G40" s="110">
         <v>1</v>
       </c>
@@ -3804,10 +3944,10 @@
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -3816,7 +3956,9 @@
         <v>4</v>
       </c>
       <c r="E41" s="65"/>
-      <c r="F41" s="71"/>
+      <c r="F41" s="71">
+        <v>1</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
@@ -3831,10 +3973,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -3843,7 +3985,9 @@
         <v>3</v>
       </c>
       <c r="E42" s="65"/>
-      <c r="F42" s="71"/>
+      <c r="F42" s="71">
+        <v>1</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
@@ -3858,10 +4002,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C43" s="45">
         <v>1</v>
@@ -3870,11 +4014,15 @@
         <v>2</v>
       </c>
       <c r="E43" s="65"/>
-      <c r="F43" s="71"/>
+      <c r="F43" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
-      <c r="H43" s="72"/>
+      <c r="H43" s="72" t="s">
+        <v>90</v>
+      </c>
       <c r="I43" s="77"/>
       <c r="J43" s="44">
         <v>2</v>
@@ -3884,10 +4032,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="21" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -3896,13 +4044,17 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="I44" s="39"/>
       <c r="J44" s="34">
         <v>2</v>
@@ -3913,10 +4065,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -3925,7 +4077,9 @@
         <v>3</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="F45" s="37">
+        <v>1</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
@@ -3940,10 +4094,10 @@
     </row>
     <row r="46" spans="1:13" ht="45">
       <c r="A46" s="21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C46" s="45">
         <v>0.5</v>
@@ -3952,13 +4106,17 @@
         <v>3</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="71"/>
+        <v>98</v>
+      </c>
+      <c r="F46" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="72"/>
+      <c r="H46" s="72" t="s">
+        <v>98</v>
+      </c>
       <c r="I46" s="77"/>
       <c r="J46" s="44">
         <v>3</v>
@@ -3967,12 +4125,12 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="45">
       <c r="A47" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C47" s="45">
         <v>1</v>
@@ -3981,11 +4139,15 @@
         <v>6</v>
       </c>
       <c r="E47" s="65"/>
-      <c r="F47" s="71"/>
+      <c r="F47" s="71">
+        <v>0</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="72"/>
+      <c r="H47" s="72" t="s">
+        <v>101</v>
+      </c>
       <c r="I47" s="77"/>
       <c r="J47" s="44">
         <v>6</v>
@@ -3996,10 +4158,10 @@
     </row>
     <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C48" s="45">
         <v>0</v>
@@ -4008,13 +4170,17 @@
         <v>8</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="F48" s="71">
+        <v>0</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
-      <c r="H48" s="72"/>
+      <c r="H48" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="I48" s="77"/>
       <c r="J48" s="44">
         <v>8</v>
@@ -4025,10 +4191,10 @@
     </row>
     <row r="49" spans="1:13" ht="30">
       <c r="A49" s="21" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4037,11 +4203,15 @@
         <v>6</v>
       </c>
       <c r="E49" s="65"/>
-      <c r="F49" s="71"/>
+      <c r="F49" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="72"/>
+      <c r="H49" s="72" t="s">
+        <v>107</v>
+      </c>
       <c r="I49" s="77"/>
       <c r="J49" s="44">
         <v>6</v>
@@ -4052,10 +4222,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4064,7 +4234,9 @@
         <v>3</v>
       </c>
       <c r="E50" s="65"/>
-      <c r="F50" s="71"/>
+      <c r="F50" s="71">
+        <v>1</v>
+      </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
@@ -4079,7 +4251,7 @@
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A51" s="226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" s="227"/>
       <c r="C51" s="132">
@@ -4093,7 +4265,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="123">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G51" s="91">
         <f>SUM(G40:G50)</f>
@@ -4114,7 +4286,7 @@
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A52" s="228" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B52" s="230"/>
       <c r="C52" s="224" t="s">
@@ -4139,10 +4311,10 @@
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="78" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C53" s="112">
         <v>1</v>
@@ -4151,7 +4323,9 @@
         <v>2</v>
       </c>
       <c r="E53" s="113"/>
-      <c r="F53" s="109"/>
+      <c r="F53" s="109">
+        <v>1</v>
+      </c>
       <c r="G53" s="110">
         <v>2</v>
       </c>
@@ -4166,10 +4340,10 @@
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C54" s="45">
         <v>1</v>
@@ -4178,11 +4352,15 @@
         <v>2</v>
       </c>
       <c r="E54" s="65"/>
-      <c r="F54" s="71"/>
+      <c r="F54" s="71">
+        <v>0</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="72"/>
+      <c r="H54" s="72" t="s">
+        <v>115</v>
+      </c>
       <c r="I54" s="130"/>
       <c r="J54" s="124">
         <v>2</v>
@@ -4193,10 +4371,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="56" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C55" s="45">
         <v>0</v>
@@ -4205,7 +4383,9 @@
         <v>1</v>
       </c>
       <c r="E55" s="65"/>
-      <c r="F55" s="71"/>
+      <c r="F55" s="71">
+        <v>0</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
@@ -4220,10 +4400,10 @@
     </row>
     <row r="56" spans="1:13" ht="135">
       <c r="A56" s="56" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C56" s="45">
         <v>0</v>
@@ -4232,13 +4412,17 @@
         <v>4</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="71"/>
+        <v>120</v>
+      </c>
+      <c r="F56" s="71">
+        <v>0.75</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
-      <c r="H56" s="72"/>
+      <c r="H56" s="72" t="s">
+        <v>121</v>
+      </c>
       <c r="I56" s="130"/>
       <c r="J56" s="124">
         <v>4</v>
@@ -4249,10 +4433,10 @@
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4261,7 +4445,9 @@
         <v>2</v>
       </c>
       <c r="E57" s="65"/>
-      <c r="F57" s="71"/>
+      <c r="F57" s="71">
+        <v>1</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
@@ -4276,7 +4462,7 @@
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A58" s="226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B58" s="227"/>
       <c r="C58" s="98">
@@ -4290,7 +4476,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="101">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G58" s="102">
         <f>SUM(G53:G57)</f>
@@ -4328,7 +4514,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="255" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B60" s="256"/>
       <c r="C60" s="133">
@@ -4342,7 +4528,7 @@
       <c r="E60" s="64"/>
       <c r="F60" s="134">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G60" s="69">
         <f t="shared" si="0"/>
@@ -4363,7 +4549,7 @@
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A61" s="257" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B61" s="258"/>
       <c r="C61" s="259">
@@ -4374,7 +4560,7 @@
       <c r="E61" s="261"/>
       <c r="F61" s="262">
         <f>F60/G60</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G61" s="263"/>
       <c r="H61" s="264"/>
@@ -4458,8 +4644,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4494,7 +4680,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="137" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -4517,7 +4703,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B7" s="279"/>
       <c r="C7" s="279"/>
@@ -4528,19 +4714,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="210" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B8" s="189" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D8" s="189" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="189" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F8" s="189" t="s">
         <v>17</v>
@@ -4551,7 +4737,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="148" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B9" s="141">
         <v>1</v>
@@ -4567,13 +4753,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" s="149"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="191" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B10" s="192">
         <v>0.9</v>
@@ -4589,15 +4775,15 @@
         <v>3.375</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" s="193" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="148" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B11" s="141">
         <v>0.67</v>
@@ -4613,15 +4799,15 @@
         <v>9.0450000000000017</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" s="149" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="191" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B12" s="192">
         <v>0.9</v>
@@ -4637,15 +4823,15 @@
         <v>14.4</v>
       </c>
       <c r="F12" s="192" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12" s="193" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="148" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B13" s="141">
         <v>0.95</v>
@@ -4664,12 +4850,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="149" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="148" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B14" s="141">
         <v>1</v>
@@ -4691,7 +4877,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="191" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B15" s="192">
         <v>1</v>
@@ -4713,7 +4899,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="148" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B16" s="141">
         <v>0.95</v>
@@ -4732,12 +4918,12 @@
         <v>18</v>
       </c>
       <c r="G16" s="149" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="191" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B17" s="192">
         <v>0.9</v>
@@ -4756,12 +4942,12 @@
         <v>18</v>
       </c>
       <c r="G17" s="193" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B18" s="141">
         <v>0.5</v>
@@ -4777,15 +4963,15 @@
         <v>3</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G18" s="149" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="191" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B19" s="192">
         <v>1</v>
@@ -4807,7 +4993,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="171" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B20" s="281"/>
       <c r="C20" s="281"/>
@@ -4824,7 +5010,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="191" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -4836,12 +5022,12 @@
       </c>
       <c r="F21" s="194"/>
       <c r="G21" s="196" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="150" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
@@ -4865,7 +5051,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B24" s="269"/>
       <c r="C24" s="269"/>
@@ -4876,19 +5062,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="209" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B25" s="197" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="197" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D25" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="197" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>17</v>
@@ -4899,27 +5085,31 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="154" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B26" s="142">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="C26" s="142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D26" s="142">
         <v>24</v>
       </c>
       <c r="E26" s="142">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="142"/>
-      <c r="G26" s="162"/>
+        <v>4.74</v>
+      </c>
+      <c r="F26" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="162" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="199" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B27" s="200">
         <v>0</v>
@@ -4934,18 +5124,22 @@
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="200"/>
-      <c r="G27" s="201"/>
+      <c r="F27" s="200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="201" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="154" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B28" s="142">
         <v>0</v>
       </c>
       <c r="C28" s="142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D28" s="142">
         <v>10</v>
@@ -4954,95 +5148,115 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="142"/>
-      <c r="G28" s="162"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+      <c r="F28" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="199" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B29" s="200">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="C29" s="200">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D29" s="200">
         <v>8</v>
       </c>
       <c r="E29" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="200"/>
-      <c r="G29" s="201"/>
+        <v>1.28</v>
+      </c>
+      <c r="F29" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="201" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="154" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B30" s="142">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C30" s="142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D30" s="142">
         <v>10</v>
       </c>
       <c r="E30" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="162"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60">
       <c r="A31" s="199" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B31" s="200">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C31" s="200">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D31" s="200">
         <v>12</v>
       </c>
       <c r="E31" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="200"/>
-      <c r="G31" s="201"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="F31" s="200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="285" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="154" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B32" s="142">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C32" s="142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D32" s="142">
         <v>10</v>
       </c>
       <c r="E32" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="142"/>
-      <c r="G32" s="162"/>
+        <v>7.1249999999999991</v>
+      </c>
+      <c r="F32" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="162" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="199" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B33" s="200">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C33" s="200">
         <v>0</v>
@@ -5054,32 +5268,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="200"/>
-      <c r="G33" s="201"/>
+      <c r="F33" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="201" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="154" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B34" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="142">
         <v>10</v>
       </c>
       <c r="E34" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="142"/>
+        <v>10</v>
+      </c>
+      <c r="F34" s="142" t="s">
+        <v>18</v>
+      </c>
       <c r="G34" s="162"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="154" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B35" s="142">
         <v>0</v>
@@ -5094,12 +5314,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="142"/>
-      <c r="G35" s="162"/>
+      <c r="F35" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="162" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="167" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
@@ -5109,27 +5333,33 @@
       </c>
       <c r="E36" s="169">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
-        <v>0</v>
+        <v>0.28745000000000004</v>
       </c>
       <c r="F36" s="169"/>
-      <c r="G36" s="170"/>
+      <c r="G36" s="170" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="199" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
       <c r="D37" s="203">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="202"/>
+      <c r="E37" s="202">
+        <v>0.3</v>
+      </c>
       <c r="F37" s="202"/>
-      <c r="G37" s="204"/>
+      <c r="G37" s="204" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="154" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5142,7 +5372,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="205" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B39" s="206"/>
       <c r="C39" s="206"/>
@@ -5166,7 +5396,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B41" s="274"/>
       <c r="C41" s="274"/>
@@ -5177,19 +5407,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="179" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F42" s="180" t="s">
         <v>17</v>
@@ -5200,7 +5430,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="156" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B43" s="145">
         <v>0</v>
@@ -5220,7 +5450,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="175" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B44" s="176">
         <v>0</v>
@@ -5240,7 +5470,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="156" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B45" s="145">
         <v>0</v>
@@ -5260,7 +5490,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="175" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B46" s="176">
         <v>0</v>
@@ -5280,7 +5510,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="156" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B47" s="145">
         <v>0</v>
@@ -5300,7 +5530,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="175" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B48" s="176">
         <v>0</v>
@@ -5320,7 +5550,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="156" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B49" s="145">
         <v>0</v>
@@ -5340,7 +5570,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="175" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B50" s="176">
         <v>0</v>
@@ -5360,7 +5590,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="156" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B51" s="145">
         <v>0</v>
@@ -5380,7 +5610,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="175" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B52" s="176">
         <v>0</v>
@@ -5400,7 +5630,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="163" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B53" s="164"/>
       <c r="C53" s="164"/>
@@ -5417,7 +5647,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="175" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B54" s="182"/>
       <c r="C54" s="182"/>
@@ -5430,7 +5660,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="156" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B55" s="146"/>
       <c r="C55" s="146"/>
@@ -5443,7 +5673,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="185" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
@@ -5484,15 +5714,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5624,20 +5845,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
--- a/Equipe106.xlsx
+++ b/Equipe106.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D0D9E2-6675-421B-8F46-38CE7F0FF4FD}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EB3DDE-3914-43C5-8EDB-2FA4158085B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="197">
   <si>
     <t>Fonct.</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée et elle est non triviale.</t>
+  </si>
+  <si>
+    <t>CommunicationService ne devrait pas gerer les sockets et les requetes http</t>
   </si>
   <si>
     <t>1.2 Nom</t>
@@ -127,6 +130,9 @@
 WaitingPopupComponent wsitchMode</t>
   </si>
   <si>
+    <t>EaselComponent update</t>
+  </si>
+  <si>
     <t>1.4 Accessibilité</t>
   </si>
   <si>
@@ -143,6 +149,11 @@
   </si>
   <si>
     <t>CommunicationServce socket</t>
+  </si>
+  <si>
+    <t>GameConfigPageComponent
+MultiplayerRoomsComponent
+VirtualPlayerService</t>
   </si>
   <si>
     <t>Sous-total</t>
@@ -161,10 +172,16 @@
     <t>playerJoinLobby et playerLeaveLobby -&gt; joinLobby et leaveLobby</t>
   </si>
   <si>
+    <t>virtualPlayerService les noms de fonction devraient commencer par un verbe</t>
+  </si>
+  <si>
     <t>2.2 Utilité</t>
   </si>
   <si>
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
+  </si>
+  <si>
+    <t>ComandHandlerService certains if sont inutiles</t>
   </si>
   <si>
     <t>2.3 Nombre de paramètres</t>
@@ -195,6 +212,9 @@
     <t>Les exceptions sont claires et spécifiques (Pas d'erreurs génériques). Les messages d'erreur affichés à l'utilisateur sont compréhensible pour l'utilisateur moyen (pas de code d'erreur serveur, mais plutôt un message descriptif du genre "Un problème est survenu lors de la sauvegarde du dessin")</t>
   </si>
   <si>
+    <t>addPlayer</t>
+  </si>
+  <si>
     <t>3.2 Valeurs limites</t>
   </si>
   <si>
@@ -281,6 +301,11 @@
 playerJoinLobby</t>
   </si>
   <si>
+    <t>getMainPLayer
+expertChoose
+spinrt1 et sprint2</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -294,6 +319,11 @@
     <t>Même commentaire que sprint 1</t>
   </si>
   <si>
+    <t>validateDictionary
+isExchangePossible
+IsEchangePossibleBot</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -365,6 +395,9 @@
   </si>
   <si>
     <t>Erreur de lint + eslint desactivé sans justification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eslint desactivé sans justification</t>
   </si>
   <si>
     <t xml:space="preserve">6.10 Imbrication </t>
@@ -615,6 +648,12 @@
   </si>
   <si>
     <t>3.10 Commande aide</t>
+  </si>
+  <si>
+    <t>non implémenté</t>
+  </si>
+  <si>
+    <t>Erreur dans la console client + ERROR: 'NG0304: 'mat-card' is not a known element + Tests qui fails</t>
   </si>
 </sst>
 </file>
@@ -2102,138 +2141,141 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2284,9 +2326,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2767,22 +2806,22 @@
       </c>
       <c r="B6" s="219">
         <f>(Fonctionnalités!E53)</f>
-        <v>0</v>
+        <v>0.62520000000000009</v>
       </c>
       <c r="C6" s="220">
         <f>'Assurance Qualité'!I61</f>
-        <v>0</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="D6" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.67412000000000005</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.482400000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2810,8 +2849,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2830,36 +2869,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2879,36 +2918,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242" t="s">
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="243"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="247" t="s">
+      <c r="G6" s="250"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="248"/>
-      <c r="K6" s="249"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
+      <c r="N6" s="243"/>
+      <c r="O6" s="244"/>
+      <c r="P6" s="244"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="239"/>
-      <c r="B7" s="251"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="258"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2944,31 +2983,31 @@
       <c r="Q7" s="221"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="224" t="s">
+      <c r="B8" s="263"/>
+      <c r="C8" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="225"/>
+      <c r="D8" s="268"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="224" t="s">
+      <c r="F8" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="225"/>
+      <c r="G8" s="268"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="224" t="s">
+      <c r="I8" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="225"/>
+      <c r="J8" s="268"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="60">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
@@ -2989,20 +3028,24 @@
         <v>3</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="55">
+        <v>0.75</v>
+      </c>
       <c r="J9" s="49">
         <v>3</v>
       </c>
-      <c r="K9" s="50"/>
+      <c r="K9" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="45">
       <c r="A10" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
@@ -3018,7 +3061,9 @@
         <v>2</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
       <c r="J10" s="34">
         <v>2</v>
       </c>
@@ -3028,10 +3073,10 @@
     </row>
     <row r="11" spans="1:17" ht="75">
       <c r="A11" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="35">
         <v>0</v>
@@ -3040,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="37">
         <v>0</v>
@@ -3049,22 +3094,26 @@
         <v>3</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="39"/>
+        <v>27</v>
+      </c>
+      <c r="I11" s="39">
+        <v>0.75</v>
+      </c>
       <c r="J11" s="34">
         <v>3</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="35">
         <v>0.75</v>
@@ -3073,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="37">
         <v>1</v>
@@ -3082,7 +3131,9 @@
         <v>2</v>
       </c>
       <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>1</v>
+      </c>
       <c r="J12" s="34">
         <v>2</v>
       </c>
@@ -3090,12 +3141,12 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="75">
       <c r="A13" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="35">
         <v>1</v>
@@ -3111,21 +3162,25 @@
         <v>4</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
       <c r="J13" s="34">
         <v>4</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="226" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="227"/>
+      <c r="A14" s="259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="260"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>10.5</v>
@@ -3146,7 +3201,7 @@
       <c r="H14" s="92"/>
       <c r="I14" s="93">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J14" s="94">
         <f>SUM(J9:J13)</f>
@@ -3157,36 +3212,36 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="233" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="224" t="s">
+      <c r="A15" s="264" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="265"/>
+      <c r="C15" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="268"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="225"/>
+      <c r="G15" s="268"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="224" t="s">
+      <c r="I15" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="225"/>
+      <c r="J15" s="268"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="45">
+    <row r="16" spans="1:17" ht="60">
       <c r="A16" s="78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="62">
         <v>1</v>
@@ -3202,22 +3257,26 @@
         <v>2</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="74"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="74">
+        <v>0</v>
+      </c>
       <c r="J16" s="75">
         <v>2</v>
       </c>
-      <c r="K16" s="76"/>
+      <c r="K16" s="76" t="s">
+        <v>41</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="30">
+    <row r="17" spans="1:13" ht="45">
       <c r="A17" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3233,20 +3292,24 @@
         <v>3</v>
       </c>
       <c r="H17" s="72"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J17" s="44">
         <v>3</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3262,7 +3325,9 @@
         <v>3</v>
       </c>
       <c r="H18" s="72"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="77">
+        <v>1</v>
+      </c>
       <c r="J18" s="44">
         <v>3</v>
       </c>
@@ -3272,10 +3337,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3291,7 +3356,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="72"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="77">
+        <v>1</v>
+      </c>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3301,10 +3368,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3320,7 +3387,9 @@
         <v>2</v>
       </c>
       <c r="H20" s="72"/>
-      <c r="I20" s="77"/>
+      <c r="I20" s="77">
+        <v>1</v>
+      </c>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3329,10 +3398,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="235" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="232"/>
+      <c r="A21" s="266" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="262"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
@@ -3353,7 +3422,7 @@
       <c r="H21" s="103"/>
       <c r="I21" s="104">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J21" s="105">
         <f>SUM(J16:J20)</f>
@@ -3364,36 +3433,36 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="228" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="229"/>
-      <c r="C22" s="224" t="s">
+      <c r="A22" s="232" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="263"/>
+      <c r="C22" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="225"/>
+      <c r="D22" s="268"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="224" t="s">
+      <c r="F22" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="225"/>
+      <c r="G22" s="268"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="224" t="s">
+      <c r="I22" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="225"/>
+      <c r="J22" s="268"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
@@ -3409,20 +3478,24 @@
         <v>2</v>
       </c>
       <c r="H23" s="111"/>
-      <c r="I23" s="114"/>
+      <c r="I23" s="114">
+        <v>0.5</v>
+      </c>
       <c r="J23" s="115">
         <v>2</v>
       </c>
-      <c r="K23" s="116"/>
+      <c r="K23" s="116" t="s">
+        <v>54</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="82" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C24" s="45">
         <v>1</v>
@@ -3438,7 +3511,9 @@
         <v>1</v>
       </c>
       <c r="H24" s="72"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="77">
+        <v>1</v>
+      </c>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3448,10 +3523,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="82" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3467,7 +3542,9 @@
         <v>1</v>
       </c>
       <c r="H25" s="72"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="77">
+        <v>1</v>
+      </c>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3476,10 +3553,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="231" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="232"/>
+      <c r="A26" s="261" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="262"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3500,7 +3577,7 @@
       <c r="H26" s="103"/>
       <c r="I26" s="104">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="105">
         <f>SUM(J23:J25)</f>
@@ -3511,40 +3588,40 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="228" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="229"/>
-      <c r="C27" s="224" t="s">
+      <c r="A27" s="232" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="263"/>
+      <c r="C27" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="225"/>
+      <c r="D27" s="268"/>
       <c r="E27" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="224" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="225"/>
+      <c r="G27" s="268"/>
       <c r="H27" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="224" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="225"/>
+      <c r="J27" s="268"/>
       <c r="K27" s="60" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="120" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C28" s="112">
         <v>1</v>
@@ -3560,9 +3637,11 @@
         <v>2</v>
       </c>
       <c r="H28" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="118"/>
+        <v>63</v>
+      </c>
+      <c r="I28" s="118">
+        <v>1</v>
+      </c>
       <c r="J28" s="73">
         <v>2</v>
       </c>
@@ -3572,10 +3651,10 @@
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="56" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3591,7 +3670,9 @@
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="77">
+        <v>1</v>
+      </c>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -3601,10 +3682,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3620,7 +3701,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="77">
+        <v>1</v>
+      </c>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -3630,10 +3713,10 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C31" s="45">
         <v>0.75</v>
@@ -3642,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F31" s="71">
         <v>0.75</v>
@@ -3651,21 +3734,25 @@
         <v>3</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="77"/>
+        <v>71</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0.75</v>
+      </c>
       <c r="J31" s="44">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="226" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="227"/>
+      <c r="A32" s="259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="260"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.25</v>
@@ -3686,7 +3773,7 @@
       <c r="H32" s="117"/>
       <c r="I32" s="104">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="J32" s="105">
         <f>SUM(J28:J31)</f>
@@ -3697,21 +3784,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="228" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="230"/>
-      <c r="C33" s="224" t="s">
+      <c r="A33" s="232" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="233"/>
+      <c r="C33" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="225"/>
+      <c r="D33" s="268"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="224" t="s">
+      <c r="F33" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="225"/>
+      <c r="G33" s="268"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3723,10 +3810,10 @@
     </row>
     <row r="34" spans="1:13" ht="45">
       <c r="A34" s="120" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C34" s="112">
         <v>0</v>
@@ -3735,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F34" s="107">
         <v>0</v>
@@ -3744,9 +3831,11 @@
         <v>1</v>
       </c>
       <c r="H34" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="118"/>
+        <v>76</v>
+      </c>
+      <c r="I34" s="118">
+        <v>1</v>
+      </c>
       <c r="J34" s="73">
         <v>1</v>
       </c>
@@ -3756,10 +3845,10 @@
     </row>
     <row r="35" spans="1:13" ht="30">
       <c r="A35" s="56" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C35" s="45">
         <v>1</v>
@@ -3775,7 +3864,9 @@
         <v>1</v>
       </c>
       <c r="H35" s="72"/>
-      <c r="I35" s="77"/>
+      <c r="I35" s="77">
+        <v>1</v>
+      </c>
       <c r="J35" s="44">
         <v>1</v>
       </c>
@@ -3785,10 +3876,10 @@
     </row>
     <row r="36" spans="1:13" ht="45">
       <c r="A36" s="21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C36" s="45">
         <v>0.5</v>
@@ -3797,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F36" s="71">
         <v>0.25</v>
@@ -3806,22 +3897,26 @@
         <v>3</v>
       </c>
       <c r="H36" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="77"/>
+        <v>82</v>
+      </c>
+      <c r="I36" s="77">
+        <v>0</v>
+      </c>
       <c r="J36" s="44">
         <v>3</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="30">
+    <row r="37" spans="1:13" ht="45">
       <c r="A37" s="21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C37" s="45">
         <v>0.5</v>
@@ -3830,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F37" s="71">
         <v>0.5</v>
@@ -3839,21 +3934,25 @@
         <v>3</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="77"/>
+        <v>87</v>
+      </c>
+      <c r="I37" s="77">
+        <v>0</v>
+      </c>
       <c r="J37" s="44">
         <v>3</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="226" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="227"/>
+      <c r="A38" s="259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="260"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>4</v>
@@ -3874,7 +3973,7 @@
       <c r="H38" s="92"/>
       <c r="I38" s="104">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="105">
         <f>SUM(J34:J37)</f>
@@ -3885,40 +3984,40 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="228" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="229"/>
-      <c r="C39" s="224" t="s">
+      <c r="A39" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="263"/>
+      <c r="C39" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="225"/>
+      <c r="D39" s="268"/>
       <c r="E39" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="224" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="225"/>
+      <c r="G39" s="268"/>
       <c r="H39" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="224" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="225"/>
+      <c r="J39" s="268"/>
       <c r="K39" s="60" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
       <c r="A40" s="78" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C40" s="84">
         <v>1</v>
@@ -3934,7 +4033,9 @@
         <v>1</v>
       </c>
       <c r="H40" s="111"/>
-      <c r="I40" s="114"/>
+      <c r="I40" s="114">
+        <v>1</v>
+      </c>
       <c r="J40" s="115">
         <v>1</v>
       </c>
@@ -3944,10 +4045,10 @@
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -3963,7 +4064,9 @@
         <v>4</v>
       </c>
       <c r="H41" s="72"/>
-      <c r="I41" s="77"/>
+      <c r="I41" s="77">
+        <v>1</v>
+      </c>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -3973,10 +4076,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -3992,7 +4095,9 @@
         <v>3</v>
       </c>
       <c r="H42" s="72"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="77">
+        <v>1</v>
+      </c>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -4002,10 +4107,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C43" s="45">
         <v>1</v>
@@ -4021,21 +4126,25 @@
         <v>2</v>
       </c>
       <c r="H43" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="77"/>
+        <v>98</v>
+      </c>
+      <c r="I43" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J43" s="44">
         <v>2</v>
       </c>
-      <c r="K43" s="46"/>
+      <c r="K43" s="46" t="s">
+        <v>98</v>
+      </c>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="21" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -4044,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F44" s="37">
         <v>0.75</v>
@@ -4053,22 +4162,26 @@
         <v>2</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="I44" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J44" s="34">
         <v>2</v>
       </c>
-      <c r="K44" s="40"/>
+      <c r="K44" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -4084,7 +4197,9 @@
         <v>3</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
       <c r="J45" s="34">
         <v>3</v>
       </c>
@@ -4094,10 +4209,10 @@
     </row>
     <row r="46" spans="1:13" ht="45">
       <c r="A46" s="21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C46" s="45">
         <v>0.5</v>
@@ -4106,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F46" s="71">
         <v>0.5</v>
@@ -4115,22 +4230,26 @@
         <v>3</v>
       </c>
       <c r="H46" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="I46" s="77"/>
+        <v>106</v>
+      </c>
+      <c r="I46" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J46" s="44">
         <v>3</v>
       </c>
-      <c r="K46" s="46"/>
+      <c r="K46" s="46" t="s">
+        <v>106</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="45">
       <c r="A47" s="21" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C47" s="45">
         <v>1</v>
@@ -4146,9 +4265,11 @@
         <v>6</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="77"/>
+        <v>109</v>
+      </c>
+      <c r="I47" s="77">
+        <v>1</v>
+      </c>
       <c r="J47" s="44">
         <v>6</v>
       </c>
@@ -4158,10 +4279,10 @@
     </row>
     <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C48" s="45">
         <v>0</v>
@@ -4170,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F48" s="71">
         <v>0</v>
@@ -4179,22 +4300,26 @@
         <v>8</v>
       </c>
       <c r="H48" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48" s="77"/>
+        <v>112</v>
+      </c>
+      <c r="I48" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J48" s="44">
         <v>8</v>
       </c>
-      <c r="K48" s="46"/>
+      <c r="K48" s="46" t="s">
+        <v>113</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="30">
       <c r="A49" s="21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4210,9 +4335,11 @@
         <v>6</v>
       </c>
       <c r="H49" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="77"/>
+        <v>116</v>
+      </c>
+      <c r="I49" s="77">
+        <v>1</v>
+      </c>
       <c r="J49" s="44">
         <v>6</v>
       </c>
@@ -4222,10 +4349,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4241,7 +4368,9 @@
         <v>3</v>
       </c>
       <c r="H50" s="72"/>
-      <c r="I50" s="77"/>
+      <c r="I50" s="77">
+        <v>1</v>
+      </c>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4250,10 +4379,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="226" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="227"/>
+      <c r="A51" s="259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="260"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>23.5</v>
@@ -4274,7 +4403,7 @@
       <c r="H51" s="92"/>
       <c r="I51" s="93">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J51" s="94">
         <f>SUM(J40:J50)</f>
@@ -4285,36 +4414,36 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="228" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="230"/>
-      <c r="C52" s="224" t="s">
+      <c r="A52" s="232" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="233"/>
+      <c r="C52" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="225"/>
+      <c r="D52" s="268"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="224" t="s">
+      <c r="F52" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="225"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="224" t="s">
+      <c r="I52" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="225"/>
+      <c r="J52" s="268"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="78" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C53" s="112">
         <v>1</v>
@@ -4330,7 +4459,9 @@
         <v>2</v>
       </c>
       <c r="H53" s="111"/>
-      <c r="I53" s="127"/>
+      <c r="I53" s="127">
+        <v>1</v>
+      </c>
       <c r="J53" s="128">
         <v>2</v>
       </c>
@@ -4340,10 +4471,10 @@
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C54" s="45">
         <v>1</v>
@@ -4359,9 +4490,11 @@
         <v>2</v>
       </c>
       <c r="H54" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="130"/>
+        <v>124</v>
+      </c>
+      <c r="I54" s="130">
+        <v>1</v>
+      </c>
       <c r="J54" s="124">
         <v>2</v>
       </c>
@@ -4371,10 +4504,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="56" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C55" s="45">
         <v>0</v>
@@ -4390,7 +4523,9 @@
         <v>1</v>
       </c>
       <c r="H55" s="72"/>
-      <c r="I55" s="130"/>
+      <c r="I55" s="130">
+        <v>1</v>
+      </c>
       <c r="J55" s="124">
         <v>1</v>
       </c>
@@ -4400,10 +4535,10 @@
     </row>
     <row r="56" spans="1:13" ht="135">
       <c r="A56" s="56" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C56" s="45">
         <v>0</v>
@@ -4412,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F56" s="71">
         <v>0.75</v>
@@ -4421,22 +4556,26 @@
         <v>4</v>
       </c>
       <c r="H56" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" s="130"/>
+        <v>130</v>
+      </c>
+      <c r="I56" s="130">
+        <v>0.75</v>
+      </c>
       <c r="J56" s="124">
         <v>4</v>
       </c>
-      <c r="K56" s="131"/>
+      <c r="K56" s="131" t="s">
+        <v>130</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4452,7 +4591,9 @@
         <v>2</v>
       </c>
       <c r="H57" s="72"/>
-      <c r="I57" s="130"/>
+      <c r="I57" s="130">
+        <v>1</v>
+      </c>
       <c r="J57" s="124">
         <v>2</v>
       </c>
@@ -4461,10 +4602,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="226" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="227"/>
+      <c r="A58" s="259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="260"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4485,7 +4626,7 @@
       <c r="H58" s="103"/>
       <c r="I58" s="93">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" s="94">
         <f>SUM(J53:J57)</f>
@@ -4496,27 +4637,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="252" t="s">
+      <c r="A59" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="253"/>
-      <c r="C59" s="253"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="253"/>
-      <c r="F59" s="253"/>
-      <c r="G59" s="253"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="253"/>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254"/>
+      <c r="B59" s="226"/>
+      <c r="C59" s="226"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="226"/>
+      <c r="J59" s="226"/>
+      <c r="K59" s="227"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="255" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="256"/>
+      <c r="A60" s="228" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="229"/>
       <c r="C60" s="133">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>69.25</v>
@@ -4537,7 +4678,7 @@
       <c r="H60" s="70"/>
       <c r="I60" s="135">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="J60" s="125">
         <f t="shared" si="0"/>
@@ -4548,67 +4689,33 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="257" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="258"/>
-      <c r="C61" s="259">
+      <c r="A61" s="230" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="231"/>
+      <c r="C61" s="234">
         <f>C60/D60</f>
         <v>0.6925</v>
       </c>
-      <c r="D61" s="260"/>
-      <c r="E61" s="261"/>
-      <c r="F61" s="262">
+      <c r="D61" s="235"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="237">
         <f>F60/G60</f>
         <v>0.65</v>
       </c>
-      <c r="G61" s="263"/>
-      <c r="H61" s="264"/>
-      <c r="I61" s="265">
+      <c r="G61" s="238"/>
+      <c r="H61" s="239"/>
+      <c r="I61" s="240">
         <f>I60/J60</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="266"/>
-      <c r="K61" s="267"/>
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="J61" s="241"/>
+      <c r="K61" s="242"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4623,6 +4730,40 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4644,8 +4785,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4659,15 +4800,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="139"/>
@@ -4680,7 +4821,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="137" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -4691,42 +4832,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="276" t="s">
+      <c r="A6" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="278"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="279"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="280"/>
+        <v>136</v>
+      </c>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="281"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="210" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B8" s="189" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D8" s="189" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="189" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F8" s="189" t="s">
         <v>17</v>
@@ -4737,7 +4878,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="148" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B9" s="141">
         <v>1</v>
@@ -4753,13 +4894,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G9" s="149"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="191" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B10" s="192">
         <v>0.9</v>
@@ -4775,15 +4916,15 @@
         <v>3.375</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G10" s="193" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="148" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B11" s="141">
         <v>0.67</v>
@@ -4799,15 +4940,15 @@
         <v>9.0450000000000017</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G11" s="149" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="191" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B12" s="192">
         <v>0.9</v>
@@ -4823,15 +4964,15 @@
         <v>14.4</v>
       </c>
       <c r="F12" s="192" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G12" s="193" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="148" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B13" s="141">
         <v>0.95</v>
@@ -4850,12 +4991,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="149" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="148" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B14" s="141">
         <v>1</v>
@@ -4877,7 +5018,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="191" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B15" s="192">
         <v>1</v>
@@ -4899,7 +5040,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="148" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B16" s="141">
         <v>0.95</v>
@@ -4918,12 +5059,12 @@
         <v>18</v>
       </c>
       <c r="G16" s="149" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="191" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B17" s="192">
         <v>0.9</v>
@@ -4942,12 +5083,12 @@
         <v>18</v>
       </c>
       <c r="G17" s="193" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="141">
         <v>0.5</v>
@@ -4963,15 +5104,15 @@
         <v>3</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G18" s="149" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="191" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B19" s="192">
         <v>1</v>
@@ -4993,10 +5134,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="171" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="281"/>
-      <c r="C20" s="281"/>
+        <v>158</v>
+      </c>
+      <c r="B20" s="282"/>
+      <c r="C20" s="282"/>
       <c r="D20" s="223">
         <f>SUM(D9:D19)</f>
         <v>100</v>
@@ -5010,7 +5151,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="191" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -5022,12 +5163,12 @@
       </c>
       <c r="F21" s="194"/>
       <c r="G21" s="196" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="150" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
@@ -5039,42 +5180,42 @@
       <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="282" t="s">
+      <c r="A23" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="283"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="284"/>
+      <c r="B23" s="284"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="284"/>
+      <c r="G23" s="285"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="269"/>
-      <c r="C24" s="269"/>
-      <c r="D24" s="269"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="270"/>
+        <v>136</v>
+      </c>
+      <c r="B24" s="270"/>
+      <c r="C24" s="270"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="270"/>
+      <c r="F24" s="270"/>
+      <c r="G24" s="271"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="209" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" s="197" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="197" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D25" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="197" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>17</v>
@@ -5085,7 +5226,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="154" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B26" s="142">
         <v>0.79</v>
@@ -5101,15 +5242,15 @@
         <v>4.74</v>
       </c>
       <c r="F26" s="142" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G26" s="162" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="199" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B27" s="200">
         <v>0</v>
@@ -5128,12 +5269,12 @@
         <v>18</v>
       </c>
       <c r="G27" s="201" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="154" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B28" s="142">
         <v>0</v>
@@ -5152,12 +5293,12 @@
         <v>18</v>
       </c>
       <c r="G28" s="162" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="199" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B29" s="200">
         <v>0.64</v>
@@ -5173,15 +5314,15 @@
         <v>1.28</v>
       </c>
       <c r="F29" s="200" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G29" s="201" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="154" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B30" s="142">
         <v>0.8</v>
@@ -5197,15 +5338,15 @@
         <v>2</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G30" s="162" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="A31" s="199" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B31" s="200">
         <v>0.9</v>
@@ -5223,13 +5364,13 @@
       <c r="F31" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="285" t="s">
-        <v>164</v>
+      <c r="G31" s="224" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="154" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B32" s="142">
         <v>0.95</v>
@@ -5248,12 +5389,12 @@
         <v>18</v>
       </c>
       <c r="G32" s="162" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="199" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B33" s="200">
         <v>0.5</v>
@@ -5269,15 +5410,15 @@
         <v>0</v>
       </c>
       <c r="F33" s="200" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G33" s="201" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="154" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B34" s="142">
         <v>1</v>
@@ -5299,7 +5440,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="154" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B35" s="142">
         <v>0</v>
@@ -5315,15 +5456,15 @@
         <v>0</v>
       </c>
       <c r="F35" s="142" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G35" s="162" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="167" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
@@ -5337,12 +5478,12 @@
       </c>
       <c r="F36" s="169"/>
       <c r="G36" s="170" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="199" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
@@ -5354,12 +5495,12 @@
       </c>
       <c r="F37" s="202"/>
       <c r="G37" s="204" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="154" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5372,7 +5513,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="205" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B39" s="206"/>
       <c r="C39" s="206"/>
@@ -5384,42 +5525,42 @@
       <c r="G39" s="208"/>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="271" t="s">
+      <c r="A40" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="272"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="273"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="273"/>
+      <c r="D40" s="273"/>
+      <c r="E40" s="273"/>
+      <c r="F40" s="273"/>
+      <c r="G40" s="274"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="274"/>
-      <c r="C41" s="274"/>
-      <c r="D41" s="274"/>
-      <c r="E41" s="274"/>
-      <c r="F41" s="274"/>
-      <c r="G41" s="275"/>
+        <v>136</v>
+      </c>
+      <c r="B41" s="275"/>
+      <c r="C41" s="275"/>
+      <c r="D41" s="275"/>
+      <c r="E41" s="275"/>
+      <c r="F41" s="275"/>
+      <c r="G41" s="276"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="179" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F42" s="180" t="s">
         <v>17</v>
@@ -5430,130 +5571,142 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="156" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B43" s="145">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="C43" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="145">
         <v>14</v>
       </c>
       <c r="E43" s="145">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="145"/>
+        <v>10.08</v>
+      </c>
+      <c r="F43" s="145" t="s">
+        <v>60</v>
+      </c>
       <c r="G43" s="157"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="175" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B44" s="176">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C44" s="176">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D44" s="176">
         <v>10</v>
       </c>
       <c r="E44" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="176"/>
+        <v>2.25</v>
+      </c>
+      <c r="F44" s="176" t="s">
+        <v>60</v>
+      </c>
       <c r="G44" s="177"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="156" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B45" s="145">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="C45" s="145">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D45" s="145">
         <v>12</v>
       </c>
       <c r="E45" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="145"/>
+        <v>2.79</v>
+      </c>
+      <c r="F45" s="145" t="s">
+        <v>60</v>
+      </c>
       <c r="G45" s="157"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="175" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B46" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="176">
         <v>18</v>
       </c>
       <c r="E46" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="176"/>
+        <v>18</v>
+      </c>
+      <c r="F46" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G46" s="177"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="156" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B47" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="145">
         <v>16</v>
       </c>
       <c r="E47" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="145"/>
+        <v>16</v>
+      </c>
+      <c r="F47" s="145" t="s">
+        <v>18</v>
+      </c>
       <c r="G47" s="157"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="175" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B48" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="176">
         <v>6</v>
       </c>
       <c r="E48" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="176"/>
+        <v>6</v>
+      </c>
+      <c r="F48" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G48" s="177"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="156" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B49" s="145">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C49" s="145">
         <v>0</v>
@@ -5565,52 +5718,58 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="145"/>
+      <c r="F49" s="145" t="s">
+        <v>60</v>
+      </c>
       <c r="G49" s="157"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="175" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B50" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="176">
         <v>6</v>
       </c>
       <c r="E50" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="176"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G50" s="177"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="156" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B51" s="145">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C51" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="145">
         <v>8</v>
       </c>
       <c r="E51" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="145"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F51" s="145" t="s">
+        <v>60</v>
+      </c>
       <c r="G51" s="157"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="175" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B52" s="176">
         <v>0</v>
@@ -5625,12 +5784,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52" s="176"/>
-      <c r="G52" s="177"/>
+      <c r="F52" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="177" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="163" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B53" s="164"/>
       <c r="C53" s="164"/>
@@ -5640,27 +5803,31 @@
       </c>
       <c r="E53" s="165">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
-        <v>0</v>
+        <v>0.62520000000000009</v>
       </c>
       <c r="F53" s="165"/>
       <c r="G53" s="166"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="175" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B54" s="182"/>
       <c r="C54" s="182"/>
       <c r="D54" s="183">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="182"/>
+      <c r="E54" s="182">
+        <v>0.2</v>
+      </c>
       <c r="F54" s="182"/>
-      <c r="G54" s="184"/>
+      <c r="G54" s="184" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="156" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B55" s="146"/>
       <c r="C55" s="146"/>
@@ -5673,7 +5840,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="185" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
@@ -5714,6 +5881,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5845,23 +6027,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5869,5 +6036,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
--- a/Equipe106.xlsx
+++ b/Equipe106.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EB3DDE-3914-43C5-8EDB-2FA4158085B9}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BB888B-0ABC-437E-AD08-3DC1A19FF9E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -2144,6 +2144,90 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2165,12 +2249,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2197,84 +2275,6 @@
     </xf>
     <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2329,13 +2329,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2718,8 +2718,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2830,13 +2830,15 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>0.88</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2869,36 +2871,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2918,36 +2920,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="247" t="s">
+      <c r="C6" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="249" t="s">
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="254" t="s">
+      <c r="G6" s="244"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="255"/>
-      <c r="K6" s="256"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="250"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="243"/>
-      <c r="O6" s="244"/>
-      <c r="P6" s="244"/>
+      <c r="N6" s="237"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="246"/>
-      <c r="B7" s="258"/>
+      <c r="A7" s="240"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2983,26 +2985,26 @@
       <c r="Q7" s="221"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="267" t="s">
+      <c r="B8" s="230"/>
+      <c r="C8" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="268"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="267" t="s">
+      <c r="F8" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="268"/>
+      <c r="G8" s="226"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="267" t="s">
+      <c r="I8" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="268"/>
+      <c r="J8" s="226"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -3177,10 +3179,10 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="259" t="s">
+      <c r="A14" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="260"/>
+      <c r="B14" s="228"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>10.5</v>
@@ -3212,26 +3214,26 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="264" t="s">
+      <c r="A15" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="265"/>
-      <c r="C15" s="267" t="s">
+      <c r="B15" s="235"/>
+      <c r="C15" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="268"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="267" t="s">
+      <c r="F15" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="268"/>
+      <c r="G15" s="226"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="267" t="s">
+      <c r="I15" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="268"/>
+      <c r="J15" s="226"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -3398,10 +3400,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="266" t="s">
+      <c r="A21" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="262"/>
+      <c r="B21" s="233"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
@@ -3433,26 +3435,26 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="232" t="s">
+      <c r="A22" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="263"/>
-      <c r="C22" s="267" t="s">
+      <c r="B22" s="230"/>
+      <c r="C22" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="268"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="267" t="s">
+      <c r="F22" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="268"/>
+      <c r="G22" s="226"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="267" t="s">
+      <c r="I22" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="268"/>
+      <c r="J22" s="226"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3553,10 +3555,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="262"/>
+      <c r="B26" s="233"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3588,28 +3590,28 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="232" t="s">
+      <c r="A27" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="263"/>
-      <c r="C27" s="267" t="s">
+      <c r="B27" s="230"/>
+      <c r="C27" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="268"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="267" t="s">
+      <c r="F27" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="268"/>
+      <c r="G27" s="226"/>
       <c r="H27" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="267" t="s">
+      <c r="I27" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="268"/>
+      <c r="J27" s="226"/>
       <c r="K27" s="60" t="s">
         <v>60</v>
       </c>
@@ -3749,10 +3751,10 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="260"/>
+      <c r="B32" s="228"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.25</v>
@@ -3784,21 +3786,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="232" t="s">
+      <c r="A33" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="233"/>
-      <c r="C33" s="267" t="s">
+      <c r="B33" s="231"/>
+      <c r="C33" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="268"/>
+      <c r="D33" s="226"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="267" t="s">
+      <c r="F33" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="268"/>
+      <c r="G33" s="226"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3949,10 +3951,10 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="259" t="s">
+      <c r="A38" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="260"/>
+      <c r="B38" s="228"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>4</v>
@@ -3984,28 +3986,28 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="232" t="s">
+      <c r="A39" s="229" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="263"/>
-      <c r="C39" s="267" t="s">
+      <c r="B39" s="230"/>
+      <c r="C39" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="268"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="267" t="s">
+      <c r="F39" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="268"/>
+      <c r="G39" s="226"/>
       <c r="H39" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="267" t="s">
+      <c r="I39" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="268"/>
+      <c r="J39" s="226"/>
       <c r="K39" s="60" t="s">
         <v>60</v>
       </c>
@@ -4379,10 +4381,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="259" t="s">
+      <c r="A51" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="260"/>
+      <c r="B51" s="228"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>23.5</v>
@@ -4414,26 +4416,26 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="232" t="s">
+      <c r="A52" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="233"/>
-      <c r="C52" s="267" t="s">
+      <c r="B52" s="231"/>
+      <c r="C52" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="268"/>
+      <c r="D52" s="226"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="267" t="s">
+      <c r="F52" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="268"/>
+      <c r="G52" s="226"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="267" t="s">
+      <c r="I52" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="268"/>
+      <c r="J52" s="226"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
@@ -4602,10 +4604,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="259" t="s">
+      <c r="A58" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="260"/>
+      <c r="B58" s="228"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4637,27 +4639,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="225" t="s">
+      <c r="A59" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="226"/>
-      <c r="C59" s="226"/>
-      <c r="D59" s="226"/>
-      <c r="E59" s="226"/>
-      <c r="F59" s="226"/>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
-      <c r="I59" s="226"/>
-      <c r="J59" s="226"/>
-      <c r="K59" s="227"/>
+      <c r="B59" s="254"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="254"/>
+      <c r="G59" s="254"/>
+      <c r="H59" s="254"/>
+      <c r="I59" s="254"/>
+      <c r="J59" s="254"/>
+      <c r="K59" s="255"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="228" t="s">
+      <c r="A60" s="256" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="229"/>
+      <c r="B60" s="257"/>
       <c r="C60" s="133">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>69.25</v>
@@ -4689,33 +4691,67 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="230" t="s">
+      <c r="A61" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="231"/>
-      <c r="C61" s="234">
+      <c r="B61" s="259"/>
+      <c r="C61" s="260">
         <f>C60/D60</f>
         <v>0.6925</v>
       </c>
-      <c r="D61" s="235"/>
-      <c r="E61" s="236"/>
-      <c r="F61" s="237">
+      <c r="D61" s="261"/>
+      <c r="E61" s="262"/>
+      <c r="F61" s="263">
         <f>F60/G60</f>
         <v>0.65</v>
       </c>
-      <c r="G61" s="238"/>
-      <c r="H61" s="239"/>
-      <c r="I61" s="240">
+      <c r="G61" s="264"/>
+      <c r="H61" s="265"/>
+      <c r="I61" s="266">
         <f>I60/J60</f>
         <v>0.74750000000000005</v>
       </c>
-      <c r="J61" s="241"/>
-      <c r="K61" s="242"/>
+      <c r="J61" s="267"/>
+      <c r="K61" s="268"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4730,40 +4766,6 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4785,7 +4787,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -5881,18 +5883,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6028,11 +6030,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
